--- a/results/img_2_img_results.xlsx
+++ b/results/img_2_img_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,6 +495,38 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.732923269271851</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>256</v>
+      </c>
+      <c r="F3" t="n">
+        <v>479</v>
+      </c>
+      <c r="G3" t="n">
+        <v>16</v>
+      </c>
+      <c r="H3" t="n">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/img_2_img_results.xlsx
+++ b/results/img_2_img_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,6 +527,102 @@
         <v>50</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1.82314133644104</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>256</v>
+      </c>
+      <c r="F4" t="n">
+        <v>479</v>
+      </c>
+      <c r="G4" t="n">
+        <v>16</v>
+      </c>
+      <c r="H4" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1.761045694351196</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>256</v>
+      </c>
+      <c r="F5" t="n">
+        <v>479</v>
+      </c>
+      <c r="G5" t="n">
+        <v>16</v>
+      </c>
+      <c r="H5" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1.979376554489136</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>256</v>
+      </c>
+      <c r="F6" t="n">
+        <v>479</v>
+      </c>
+      <c r="G6" t="n">
+        <v>16</v>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/img_2_img_results.xlsx
+++ b/results/img_2_img_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -748,6 +748,276 @@
         <v>210.58</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1.687773823738098</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label, stratified</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>256</v>
+      </c>
+      <c r="F8" t="n">
+        <v>479</v>
+      </c>
+      <c r="G8" t="n">
+        <v>8</v>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>12:07:49</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>216.14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1.667442798614502</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label, stratified</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>256</v>
+      </c>
+      <c r="F9" t="n">
+        <v>479</v>
+      </c>
+      <c r="G9" t="n">
+        <v>8</v>
+      </c>
+      <c r="H9" t="n">
+        <v>50</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>12:12:00</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>249.38</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1.84900164604187</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label, stratified</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>256</v>
+      </c>
+      <c r="F10" t="n">
+        <v>479</v>
+      </c>
+      <c r="G10" t="n">
+        <v>8</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>12:17:00</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>298.46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1.657085776329041</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label, stratified</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>256</v>
+      </c>
+      <c r="F11" t="n">
+        <v>479</v>
+      </c>
+      <c r="G11" t="n">
+        <v>16</v>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>12:20:38</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>215.7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1.681337952613831</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label, stratified</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>256</v>
+      </c>
+      <c r="F12" t="n">
+        <v>479</v>
+      </c>
+      <c r="G12" t="n">
+        <v>16</v>
+      </c>
+      <c r="H12" t="n">
+        <v>50</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>12:24:46</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>246.75</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1.711851239204407</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label, stratified</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>256</v>
+      </c>
+      <c r="F13" t="n">
+        <v>479</v>
+      </c>
+      <c r="G13" t="n">
+        <v>16</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>12:29:41</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>293.26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
